--- a/tests/data/output/一级测试用例-f0002_result.xlsx
+++ b/tests/data/output/一级测试用例-f0002_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"端博","id_card_no":"410203195304112597"}</t>
+          <t>{"name":"诸超","id_card_no":"370112194111302566"}</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"汝琳","id_card_no":"650121193701256941"}</t>
+          <t>{"name":"阮秀梅","id_card_no":"431081193506197115"}</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"迟桂英","id_card_no":"511526196109278575"}</t>
+          <t>{"name":"关凤兰","id_card_no":"320922194910188824"}</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"粱瑜","id_card_no":"511600193705108562"}</t>
+          <t>{"name":"郑莹","id_card_no":"652928193509051508"}</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"令博","id_card_no":"341502195811177726"}</t>
+          <t>{"name":"鄢兵","id_card_no":"450702195005255545"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0002_result.xlsx
+++ b/tests/data/output/一级测试用例-f0002_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"诸超","id_card_no":"370112194111302566"}</t>
+          <t>{"name":"温浩","id_card_no":"511421194408247457"}</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"阮秀梅","id_card_no":"431081193506197115"}</t>
+          <t>{"name":"翁帆","id_card_no":"371325196008013945"}</t>
         </is>
       </c>
     </row>
@@ -649,13 +649,13 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-001';
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-008';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
 info_per_bus_shareholder.ent_status[0]='在营（开业）';
-info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-002';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-009';
 info_per_bus_shareholder.funded_ratio[1]='0.7';
 info_per_bus_shareholder.ent_status[1]='注销'; 
-info_per_bus_shareholder.ent_name[2]='上海蓝胖子有限公司f001-003';
+info_per_bus_shareholder.ent_name[2]='上海蓝胖子有限公司f001-010';
 info_per_bus_shareholder.funded_ratio[2]='0.9';
 info_per_bus_shareholder.ent_status[2]='在营（开业）'</t>
         </is>
@@ -664,8 +664,8 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-001';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-003'</t>
+info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-008';
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-010'</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"关凤兰","id_card_no":"320922194910188824"}</t>
+          <t>{"name":"东秀芳","id_card_no":"220221197003285706"}</t>
         </is>
       </c>
     </row>
@@ -731,8 +731,8 @@
       <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-004';
-info_per_bus_legal.ent_status[0]='在营（开业）'; info_per_bus_legal.ent_name[1]='上海蓝胖子有限公司f001-005';
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-011';
+info_per_bus_legal.ent_status[0]='在营（开业）'; info_per_bus_legal.ent_name[1]='上海蓝胖子有限公司f001-012';
 info_per_bus_legal.ent_status[1]='在营（开业）'
 </t>
         </is>
@@ -740,10 +740,10 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-006';
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-013';
 info_per_bus_shareholder.funded_ratio[0]='0.7';
 info_per_bus_shareholder.ent_status[0]='注销'; 
-info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-007';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-014';
 info_per_bus_shareholder.funded_ratio[1]='0.9';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
@@ -751,8 +751,8 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-004';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-005'; info_com_bus_basic.ent_name[2]='上海蓝胖子有限公司江苏分公司f001-007'</t>
+info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-011';
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-012'; info_com_bus_basic.ent_name[2]='上海蓝胖子有限公司江苏分公司f001-014'</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"郑莹","id_card_no":"652928193509051508"}</t>
+          <t>{"name":"巢健","id_card_no":"13010919740708321X"}</t>
         </is>
       </c>
     </row>
@@ -818,8 +818,8 @@
       <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-008';
-info_per_bus_legal.ent_status[0]='在营（开业）'; info_per_bus_legal.ent_name[1]='上海蓝胖子有限公司f001-009';
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-015';
+info_per_bus_legal.ent_status[0]='在营（开业）'; info_per_bus_legal.ent_name[1]='上海蓝胖子有限公司f001-016';
 info_per_bus_legal.ent_status[1]='在营（开业）'
 </t>
         </is>
@@ -827,10 +827,10 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-010';
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-017';
 info_per_bus_shareholder.funded_ratio[0]='0.7';
 info_per_bus_shareholder.ent_status[0]='注销'; 
-info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-011';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-018';
 info_per_bus_shareholder.funded_ratio[1]='0.15';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
         </is>
@@ -838,8 +838,8 @@
       <c r="I6" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-008';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-009'</t>
+info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-015';
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-016'</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"鄢兵","id_card_no":"450702195005255545"}</t>
+          <t>{"name":"涂慧","id_card_no":"652723193710146063"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0002_result.xlsx
+++ b/tests/data/output/一级测试用例-f0002_result.xlsx
@@ -492,7 +492,7 @@
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-001';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-003'</t>
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司f001-003'</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"温浩","id_card_no":"511421194408247457"}</t>
+          <t>{"name":"康秀云","id_card_no":"330105196411151905"}</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-004';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-005'; info_com_bus_basic.ent_name[2]='上海蓝胖子有限公司江苏分公司f001-007'</t>
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司f001-005'; info_com_bus_basic.ent_name[2]='上海蓝胖子有限公司f001-007'</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"翁帆","id_card_no":"371325196008013945"}</t>
+          <t>{"name":"云红梅","id_card_no":"411725200105261901"}</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-008';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-010'</t>
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司f001-010'</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -677,7 +677,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>per_face_relent_indusCode1='A,B'</t>
+          <t>per_face_relent_indusCode1=A,B</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -691,15 +691,19 @@
           <t>ent_name</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"东秀芳","id_card_no":"220221197003285706"}</t>
+          <t>{"name":"宫建","id_card_no":"210681198309073598"}</t>
         </is>
       </c>
     </row>
@@ -752,7 +756,7 @@
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-011';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-012'; info_com_bus_basic.ent_name[2]='上海蓝胖子有限公司江苏分公司f001-014'</t>
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司f001-012'; info_com_bus_basic.ent_name[2]='上海蓝胖子有限公司f001-014'</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -764,7 +768,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>per_face_relent_indusCode1='A,B'</t>
+          <t>per_face_relent_indusCode1=A,B</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -778,15 +782,19 @@
           <t>ent_name</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>A,B</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"巢健","id_card_no":"13010919740708321X"}</t>
+          <t>{"name":"尉玉珍","id_card_no":"42112419830201964X"}</t>
         </is>
       </c>
     </row>
@@ -839,7 +847,7 @@
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-015';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-016'</t>
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司f001-016'</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -851,7 +859,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>per_face_relent_indusCode1='A,F'</t>
+          <t>per_face_relent_indusCode1=A,F</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -865,15 +873,19 @@
           <t>ent_name</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>A,F</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"涂慧","id_card_no":"652723193710146063"}</t>
+          <t>{"name":"终波","id_card_no":"610402200008220409"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0002_result.xlsx
+++ b/tests/data/output/一级测试用例-f0002_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"岳云","id_card_no":"150105194505040728"}</t>
+          <t>{"name":"常冬梅","id_card_no":"520621198803053011"}</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"官红梅","id_card_no":"321181193404244670"}</t>
+          <t>{"name":"朱玲","id_card_no":"14042319330221417X"}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"路璐","id_card_no":"54023719590328342X"}</t>
+          <t>{"name":"单洋","id_card_no":"511681196906293719"}</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"查桂珍","id_card_no":"410108193210142530"}</t>
+          <t>{"name":"柯玉","id_card_no":"411403199701261692"}</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"单建平","id_card_no":"54252519800413702X"}</t>
+          <t>{"name":"汤军","id_card_no":"520622196407268712"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0002_result.xlsx
+++ b/tests/data/output/一级测试用例-f0002_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"常冬梅","id_card_no":"520621198803053011"}</t>
+          <t>{"name":"爱峰","id_card_no":"130636196501018950"}</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"朱玲","id_card_no":"14042319330221417X"}</t>
+          <t>{"name":"甄浩","id_card_no":"330803196612187889"}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"单洋","id_card_no":"511681196906293719"}</t>
+          <t>{"name":"包建平","id_card_no":"431226197108228080"}</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"柯玉","id_card_no":"411403199701261692"}</t>
+          <t>{"name":"广彬","id_card_no":"610800194902196731"}</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"汤军","id_card_no":"520622196407268712"}</t>
+          <t>{"name":"安刚","id_card_no":"610828196809267473"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0002_result.xlsx
+++ b/tests/data/output/一级测试用例-f0002_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"爱峰","id_card_no":"130636196501018950"}</t>
+          <t>{"name":"支秀荣","id_card_no":"320724195412017076"}</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"甄浩","id_card_no":"330803196612187889"}</t>
+          <t>{"name":"东建华","id_card_no":"410927193707186363"}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"包建平","id_card_no":"431226197108228080"}</t>
+          <t>{"name":"储桂香","id_card_no":"232722194502048469"}</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"广彬","id_card_no":"610800194902196731"}</t>
+          <t>{"name":"景琴","id_card_no":"632726197211027370"}</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"安刚","id_card_no":"610828196809267473"}</t>
+          <t>{"name":"白莹","id_card_no":"530301199708263779"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f0002_result.xlsx
+++ b/tests/data/output/一级测试用例-f0002_result.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"支秀荣","id_card_no":"320724195412017076"}</t>
+          <t>{"name":"能丽","id_card_no":"450924193101200528"}</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"东建华","id_card_no":"410927193707186363"}</t>
+          <t>{"name":"空海燕","id_card_no":"220605195905251428"}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"储桂香","id_card_no":"232722194502048469"}</t>
+          <t>{"name":"阳玉珍","id_card_no":"140830194909275163"}</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"景琴","id_card_no":"632726197211027370"}</t>
+          <t>{"name":"寇莹","id_card_no":"430412199401242798"}</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"白莹","id_card_no":"530301199708263779"}</t>
+          <t>{"name":"贾娜","id_card_no":"130637196709139723"}</t>
         </is>
       </c>
     </row>
